--- a/tables/Quarto.xlsx
+++ b/tables/Quarto.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@Quarto projects/rsources-book-en/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017B55C1-4F5F-1448-B8AF-59AC5F69CF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C220E34-1C7D-DC45-80BB-932890A973F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="500" windowWidth="24540" windowHeight="13680" xr2:uid="{B5B84DCA-39F4-094E-A542-68CA0491B131}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>author</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>resource</t>
+  </si>
+  <si>
+    <t>Posit</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -557,7 +560,7 @@
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -568,7 +571,7 @@
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>39</v>

--- a/tables/Quarto.xlsx
+++ b/tables/Quarto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C220E34-1C7D-DC45-80BB-932890A973F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABFB169-0756-F24E-9251-A08BC65A8081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="500" windowWidth="24540" windowHeight="13680" xr2:uid="{B5B84DCA-39F4-094E-A542-68CA0491B131}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>author</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Posit</t>
+  </si>
+  <si>
+    <t>R for WebAssembly</t>
   </si>
 </sst>
 </file>
@@ -536,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFF4C3D-D287-714F-901E-4672014BED7F}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -681,7 +684,7 @@
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>36</v>
@@ -714,7 +717,7 @@
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>40</v>
